--- a/data/car_sale_excel.xlsx
+++ b/data/car_sale_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Make</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>$9,700.00</t>
+  </si>
+  <si>
+    <t>$3535</t>
   </si>
 </sst>
 </file>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +465,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -479,8 +485,11 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -496,8 +505,11 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -513,8 +525,11 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>133535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -530,8 +545,11 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -547,8 +565,11 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -565,7 +586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -582,7 +603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -599,7 +620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -616,7 +637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>8</v>
       </c>
